--- a/Test_2025-12-25_20-34.xlsx
+++ b/Test_2025-12-25_20-34.xlsx
@@ -62,43 +62,16 @@
     <t>CETAL 1000MG 15 TABS</t>
   </si>
   <si>
-    <t>1:1</t>
+    <t>2:1</t>
   </si>
   <si>
     <t>42.00</t>
   </si>
   <si>
-    <t>70.1400</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>MUCO S.R 75MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
+    <t>28.1400</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -853,107 +826,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="A10" s="7">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c t="s" r="C10" s="8">
+    <row r="10" ht="25.5" customHeight="1">
+      <c r="N10" s="13">
+        <v>18.140000000000001</v>
+      </c>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
         <v>26</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c t="s" r="H10" s="9">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
         <v>27</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c t="s" r="L10" s="10">
-        <v>12</v>
-      </c>
-      <c r="M10" s="10"/>
-      <c t="s" r="N10" s="8">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
         <v>28</v>
       </c>
-      <c r="O10" s="8"/>
-      <c t="s" r="P10" s="11">
-        <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="A11" s="7">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c t="s" r="C11" s="8">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c t="s" r="H11" s="9">
-        <v>31</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c t="s" r="L11" s="10">
-        <v>12</v>
-      </c>
-      <c r="M11" s="10"/>
-      <c t="s" r="N11" s="8">
-        <v>32</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c t="s" r="P11" s="11">
-        <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" ht="26.25" customHeight="1">
-      <c r="N12" s="13">
-        <v>157.13999999999999</v>
-      </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>35</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
-        <v>36</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
-        <v>37</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -977,20 +884,10 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
